--- a/Idea Manager.xlsx
+++ b/Idea Manager.xlsx
@@ -8,9 +8,91 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="单产品评估" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>美术吸引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计(可)完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场接受度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源匹配度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否喜欢做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题材吸引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益潜力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差\标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心概念吸引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引力(5星制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性(5星制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评（10分制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估人权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +129,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,16 +458,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Idea Manager.xlsx
+++ b/Idea Manager.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="单产品评估" sheetId="2" r:id="rId2"/>
+    <sheet name="简化版" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="单产品评估" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>美术吸引力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +151,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,7 +462,7 @@
   <dimension ref="B1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="B3:E3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,89 +485,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
       <c r="X1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -601,7 +747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
